--- a/indexer_lib/data/FGTS mensal.xlsx
+++ b/indexer_lib/data/FGTS mensal.xlsx
@@ -491,6 +491,15 @@
       <c r="E2" s="2">
         <v>0.24659999999999999</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.24659999999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.24659999999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.24659999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS mensal.xlsx
+++ b/indexer_lib/data/FGTS mensal.xlsx
@@ -500,6 +500,9 @@
       <c r="H2" s="2">
         <v>0.24659999999999999</v>
       </c>
+      <c r="I2" s="2">
+        <v>0.24659999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS mensal.xlsx
+++ b/indexer_lib/data/FGTS mensal.xlsx
@@ -503,6 +503,9 @@
       <c r="I2" s="2">
         <v>0.24659999999999999</v>
       </c>
+      <c r="J2" s="2">
+        <v>0.24659999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS mensal.xlsx
+++ b/indexer_lib/data/FGTS mensal.xlsx
@@ -506,6 +506,9 @@
       <c r="J2" s="2">
         <v>0.24659999999999999</v>
       </c>
+      <c r="K2" s="2">
+        <v>0.24659999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS mensal.xlsx
+++ b/indexer_lib/data/FGTS mensal.xlsx
@@ -509,6 +509,9 @@
       <c r="K2" s="2">
         <v>0.24659999999999999</v>
       </c>
+      <c r="L2" s="2">
+        <v>0.24659999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/FGTS mensal.xlsx
+++ b/indexer_lib/data/FGTS mensal.xlsx
@@ -512,6 +512,9 @@
       <c r="L2" s="2">
         <v>0.24659999999999999</v>
       </c>
+      <c r="M2" s="2">
+        <v>0.24659999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>
